--- a/data/climate_data_availability/6201_data.xlsx
+++ b/data/climate_data_availability/6201_data.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20304"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_262064899521B7E4ED8B09743F9F40348ED35AC1" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179016" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,9 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="23">
   <si>
     <t>inventory nr</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>month</t>
@@ -32,16 +36,13 @@
     <t>year</t>
   </si>
   <si>
-    <t>precip</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>temp_min</t>
   </si>
   <si>
     <t>temp_max</t>
+  </si>
+  <si>
+    <t>precip</t>
   </si>
   <si>
     <t>psychrometry_temp_dry</t>
@@ -62,19 +63,25 @@
     <t>haut bar. Luc</t>
   </si>
   <si>
-    <t>07.00</t>
+    <t>t1</t>
   </si>
   <si>
-    <t>14.00</t>
+    <t>t2</t>
   </si>
   <si>
-    <t>hygrometricite_max</t>
+    <t>t3</t>
   </si>
   <si>
-    <t>hygrometricite_min</t>
+    <t>actino</t>
   </si>
   <si>
-    <t>Longitude</t>
+    <t>hygro</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
   </si>
   <si>
     <t>latitude</t>
@@ -89,8 +96,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,63 +248,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="88">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
@@ -305,29 +316,25 @@
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,7 +393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,9 +426,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,6 +478,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -629,37 +670,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="125" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -691,22 +732,28 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>6201</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -757,12 +804,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>6201</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -813,12 +860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>6201</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -869,12 +916,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>6201</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -925,12 +972,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>6201</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -981,12 +1028,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>6201</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1037,12 +1084,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>6201</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -1093,12 +1140,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>6201</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1149,12 +1196,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>6201</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1205,12 +1252,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>6201</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1261,12 +1308,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>6201</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1317,12 +1364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>6201</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1373,12 +1420,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>6201</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -1429,12 +1476,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>6201</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -1485,12 +1532,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>6201</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1541,12 +1588,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>6201</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -1597,12 +1644,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>6201</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1653,12 +1700,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>6201</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -1709,12 +1756,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>6201</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -1765,12 +1812,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>6201</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1821,12 +1868,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>6201</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -1877,12 +1924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>6201</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1933,12 +1980,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>6201</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1989,12 +2036,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>6201</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2045,12 +2092,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>6201</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>12</v>
@@ -2101,12 +2148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>6201</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -2157,12 +2204,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>6201</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -2213,12 +2260,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>6201</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>9</v>
@@ -2269,12 +2316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>6201</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -2325,12 +2372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>6201</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -2381,12 +2428,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>6201</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2437,12 +2484,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>6201</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -2493,12 +2540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>6201</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -2549,12 +2596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>6201</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2605,12 +2652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>6201</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2661,12 +2708,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>6201</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <v>12</v>
@@ -2717,12 +2764,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>6201</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C38">
         <v>11</v>
@@ -2773,12 +2820,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>6201</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -2829,12 +2876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>6201</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>9</v>
@@ -2885,12 +2932,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>6201</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -2941,12 +2988,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>6201</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -2997,12 +3044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>6201</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -3053,12 +3100,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>6201</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -3109,12 +3156,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>6201</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -3165,12 +3212,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>6201</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -3221,12 +3268,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>6201</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -3277,12 +3324,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>6201</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3333,12 +3380,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>6201</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>12</v>
@@ -3389,12 +3436,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>6201</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>11</v>
@@ -3445,12 +3492,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>6201</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C51">
         <v>10</v>
@@ -3501,12 +3548,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>6201</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>9</v>
@@ -3557,12 +3604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>6201</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <v>8</v>
@@ -3613,12 +3660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>6201</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -3669,12 +3716,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>6201</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -3725,12 +3772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>6201</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -3781,12 +3828,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>6201</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -3837,12 +3884,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>6201</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -3893,12 +3940,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>6201</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -3949,12 +3996,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>6201</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4005,12 +4052,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>6201</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C61">
         <v>12</v>
@@ -4073,12 +4120,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4090,12 +4137,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
